--- a/Mysql_Assignment Rolls.xlsx
+++ b/Mysql_Assignment Rolls.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E38"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1316,7 +1316,9 @@
       <c r="D39" s="2">
         <v>45107</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
@@ -1331,7 +1333,9 @@
       <c r="D40" s="2">
         <v>45107</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
@@ -1346,7 +1350,9 @@
       <c r="D41" s="2">
         <v>45107</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
@@ -1361,7 +1367,9 @@
       <c r="D42" s="2">
         <v>45107</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -1376,7 +1384,9 @@
       <c r="D43" s="2">
         <v>45107</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4">
+        <v>45023</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="D44" s="2"/>

--- a/Mysql_Assignment Rolls.xlsx
+++ b/Mysql_Assignment Rolls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t>Lesson Number</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Pivoting Data in SQL</t>
+  </si>
+  <si>
+    <t>https://github.com/rolls65/MySQL_PRACTICES</t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -689,6 +692,9 @@
       <c r="E2" s="2">
         <v>45107</v>
       </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
@@ -709,6 +715,9 @@
       <c r="E3" s="2">
         <v>45107</v>
       </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -726,6 +735,9 @@
       <c r="E4" s="2">
         <v>45107</v>
       </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
@@ -743,6 +755,9 @@
       <c r="E5" s="2">
         <v>45107</v>
       </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -760,6 +775,9 @@
       <c r="E6" s="2">
         <v>45107</v>
       </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -777,6 +795,9 @@
       <c r="E7" s="2">
         <v>45107</v>
       </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -794,6 +815,9 @@
       <c r="E8" s="2">
         <v>45107</v>
       </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -811,6 +835,9 @@
       <c r="E9" s="2">
         <v>45107</v>
       </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -828,6 +855,9 @@
       <c r="E10" s="2">
         <v>45107</v>
       </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -845,6 +875,9 @@
       <c r="E11" s="2">
         <v>45107</v>
       </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -862,6 +895,9 @@
       <c r="E12" s="2">
         <v>45107</v>
       </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -879,6 +915,9 @@
       <c r="E13" s="2">
         <v>45107</v>
       </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -896,6 +935,9 @@
       <c r="E14" s="2">
         <v>45107</v>
       </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -913,6 +955,9 @@
       <c r="E15" s="2">
         <v>45107</v>
       </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -930,8 +975,11 @@
       <c r="E16" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +995,11 @@
       <c r="E17" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +1015,11 @@
       <c r="E18" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,8 +1035,11 @@
       <c r="E19" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,8 +1055,11 @@
       <c r="E20" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,8 +1075,11 @@
       <c r="E21" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,8 +1095,11 @@
       <c r="E22" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1049,8 +1115,11 @@
       <c r="E23" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1066,8 +1135,11 @@
       <c r="E24" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,8 +1155,11 @@
       <c r="E25" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1100,8 +1175,11 @@
       <c r="E26" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1117,8 +1195,11 @@
       <c r="E27" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1134,8 +1215,11 @@
       <c r="E28" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1235,11 @@
       <c r="E29" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -1168,8 +1255,11 @@
       <c r="E30" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1185,8 +1275,11 @@
       <c r="E31" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1202,8 +1295,11 @@
       <c r="E32" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,8 +1315,11 @@
       <c r="E33" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1236,8 +1335,11 @@
       <c r="E34" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -1251,8 +1353,11 @@
       <c r="E35" s="3">
         <v>44933</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1268,8 +1373,11 @@
       <c r="E36" s="4">
         <v>44992</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1285,8 +1393,11 @@
       <c r="E37" s="4">
         <v>44992</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1413,11 @@
       <c r="E38" s="4">
         <v>44992</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1319,8 +1433,11 @@
       <c r="E39" s="4">
         <v>45023</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1336,8 +1453,11 @@
       <c r="E40" s="4">
         <v>45023</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +1473,11 @@
       <c r="E41" s="4">
         <v>45023</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +1493,11 @@
       <c r="E42" s="4">
         <v>45023</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1387,11 +1513,14 @@
       <c r="E43" s="4">
         <v>45023</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="D45" s="2"/>
     </row>
   </sheetData>
